--- a/finaltable.xlsx
+++ b/finaltable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="440" windowWidth="10220" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>n</t>
   </si>
@@ -102,13 +102,160 @@
   </si>
   <si>
     <t>passingGPA</t>
+  </si>
+  <si>
+    <t>t = 4.0075</t>
+  </si>
+  <si>
+    <t>t = 1.1947</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>&lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t>Critical Value</t>
+  </si>
+  <si>
+    <t>χ² = 203.54</t>
+  </si>
+  <si>
+    <t>χ² = 0.0079701</t>
+  </si>
+  <si>
+    <t>17, 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Min, Max</t>
+  </si>
+  <si>
+    <t>Mean ± SD</t>
+  </si>
+  <si>
+    <t>18.60 ±  1.99</t>
+  </si>
+  <si>
+    <t>3.11 ± 0.45</t>
+  </si>
+  <si>
+    <t>0.5, 4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Rsquare</t>
+  </si>
+  <si>
+    <t>Likelihood ratio test</t>
+  </si>
+  <si>
+    <t>survreg</t>
+  </si>
+  <si>
+    <t>2170 on 1 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>63.05 on 1 df p=2e-15</t>
+  </si>
+  <si>
+    <t>0.05  on 1 df p=0.8</t>
+  </si>
+  <si>
+    <t>dlbmaj</t>
+  </si>
+  <si>
+    <t>5.18  on 1 df p=0.02</t>
+  </si>
+  <si>
+    <t>χ² = 2656.77 on 1 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>χ² = 59.78 on 1 df p=1.06e-14</t>
+  </si>
+  <si>
+    <t>χ² = 0.03 on 1 df p=0.863</t>
+  </si>
+  <si>
+    <t>χ² = 3.03 on 1 df p=0.0818</t>
+  </si>
+  <si>
+    <t>prttime+age</t>
+  </si>
+  <si>
+    <t>2326 on 2 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>χ² = 2813.12 on 2 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>prttime+age+dlbmaj</t>
+  </si>
+  <si>
+    <t>χ² = 2843.74 on 3 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>2357 on 3 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>prttime+age+dblmaj+gpa</t>
+  </si>
+  <si>
+    <t>2358 on 4 df p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">χ² = 2843.74 on 3 df p=&lt;2e-16 </t>
+  </si>
+  <si>
+    <t>T-test</t>
+  </si>
+  <si>
+    <t>survdiff</t>
+  </si>
+  <si>
+    <t>coxph_Rsquared</t>
+  </si>
+  <si>
+    <t>coxph_LikelihoodRT</t>
+  </si>
+  <si>
+    <t>gpaCategorical</t>
+  </si>
+  <si>
+    <t>t = 1.1947, df=200.48, p=0.2336</t>
+  </si>
+  <si>
+    <t>χ² = 0, 1 df, p=0.863</t>
+  </si>
+  <si>
+    <t>χ² = 0, 1 df, p=0.592</t>
+  </si>
+  <si>
+    <t>0.05, 1 df, p=0.8</t>
+  </si>
+  <si>
+    <t>0.07, 1 df, p=0.8</t>
+  </si>
+  <si>
+    <t>χ² = 0.1, 1 df, p=0.8</t>
+  </si>
+  <si>
+    <t>χ² = 37.9, 34 df, p=0.3</t>
+  </si>
+  <si>
+    <t>t = 1.0842, df=3, p=0.3576</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +275,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,6 +430,7 @@
     <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -557,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G30"/>
+  <dimension ref="A2:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="194" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,6 +1112,278 @@
         <v>0.50239089999999997</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>218.98</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8.4129999999999996E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>200.48</v>
+      </c>
+      <c r="F35">
+        <v>0.2336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>1E-3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.372</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>0.376</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>0.376</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/finaltable.xlsx
+++ b/finaltable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>n</t>
   </si>
@@ -249,6 +249,27 @@
   </si>
   <si>
     <t>t = 1.0842, df=3, p=0.3576</t>
+  </si>
+  <si>
+    <t>χ² = 4855, 568 df, p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>χ² = 2844.69, 4 df, p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>prttime+age+dblmaj+gpaC</t>
+  </si>
+  <si>
+    <t>χ² = 2371, 85 df, p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>2359 on 4 df, p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>χ² = 2846.24, 4 df, p=&lt;2e-16</t>
+  </si>
+  <si>
+    <t>2358 on 4 df, p=&lt;2e-16</t>
   </si>
 </sst>
 </file>
@@ -712,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="194" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:F50"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1384,6 +1405,46 @@
         <v>68</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51">
+        <v>0.376</v>
+      </c>
+      <c r="E51" t="s">
+        <v>80</v>
+      </c>
+      <c r="F51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52">
+        <v>0.376</v>
+      </c>
+      <c r="E52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
